--- a/10_Java/学习笔记_Spring_SpringMVC.xlsx
+++ b/10_Java/学习笔记_Spring_SpringMVC.xlsx
@@ -7748,7 +7748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8045,8 +8045,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8068,6 +8084,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8180,7 +8202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8269,7 +8291,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8320,6 +8341,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8386,7 +8416,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://7n.w3cschool.cn/attachments/image/wk/wkspring/mvc1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF09450-52F4-42D7-A411-4E33A5202C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DF09450-52F4-42D7-A411-4E33A5202C06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8692,7 +8722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8744,10 +8774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X361"/>
+  <dimension ref="A1:X352"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8758,7 +8788,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9009,7 +9039,7 @@
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9050,7 +9080,7 @@
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>297</v>
       </c>
       <c r="C20" s="12"/>
@@ -9106,7 +9136,7 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="9" t="s">
         <v>293</v>
       </c>
@@ -9126,12 +9156,12 @@
       <c r="O23" s="8"/>
     </row>
     <row r="25" spans="1:15" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9141,22 +9171,22 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9179,12 +9209,12 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="51" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="51" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9199,7 +9229,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="45" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9221,7 +9251,7 @@
       <c r="I58" s="31"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>274</v>
       </c>
       <c r="C59" s="31"/>
@@ -9233,7 +9263,7 @@
       <c r="I59" s="31"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>273</v>
       </c>
       <c r="C60" s="31"/>
@@ -9245,7 +9275,7 @@
       <c r="I60" s="31"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="49" t="s">
         <v>272</v>
       </c>
       <c r="C61" s="31"/>
@@ -9257,7 +9287,7 @@
       <c r="I61" s="31"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="49" t="s">
         <v>271</v>
       </c>
       <c r="C62" s="31"/>
@@ -9594,21 +9624,21 @@
       <c r="I91" s="31"/>
     </row>
     <row r="92" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="49" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="31"/>
@@ -9622,7 +9652,7 @@
       <c r="K93" s="31"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="49" t="s">
         <v>243</v>
       </c>
       <c r="C94" s="31"/>
@@ -9636,7 +9666,7 @@
       <c r="K94" s="31"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="49" t="s">
         <v>242</v>
       </c>
       <c r="C95" s="31"/>
@@ -9664,7 +9694,7 @@
       <c r="K96" s="31"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="49" t="s">
         <v>240</v>
       </c>
       <c r="C97" s="31"/>
@@ -9678,7 +9708,7 @@
       <c r="K97" s="31"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="49" t="s">
         <v>239</v>
       </c>
       <c r="C98" s="31"/>
@@ -9692,7 +9722,7 @@
       <c r="K98" s="31"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="49" t="s">
         <v>238</v>
       </c>
       <c r="C99" s="31"/>
@@ -9706,7 +9736,7 @@
       <c r="K99" s="31"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="49" t="s">
         <v>237</v>
       </c>
       <c r="C100" s="31"/>
@@ -9845,22 +9875,22 @@
       </c>
     </row>
     <row r="111" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="48" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="42" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="45" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9870,7 +9900,7 @@
       </c>
     </row>
     <row r="116" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C116" s="31"/>
@@ -9882,7 +9912,7 @@
       <c r="I116" s="31"/>
     </row>
     <row r="117" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B117" s="47" t="s">
+      <c r="B117" s="46" t="s">
         <v>224</v>
       </c>
       <c r="C117" s="31"/>
@@ -9983,7 +10013,7 @@
       </c>
     </row>
     <row r="126" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B126" s="45" t="s">
+      <c r="B126" s="44" t="s">
         <v>221</v>
       </c>
     </row>
@@ -9993,7 +10023,7 @@
       </c>
     </row>
     <row r="128" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="47" t="s">
+      <c r="B128" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C128" s="31"/>
@@ -10094,32 +10124,32 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="43" t="s">
+      <c r="B137" s="42" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B138" s="43" t="s">
+      <c r="B138" s="42" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="43" t="s">
+      <c r="B139" s="42" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="45" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B141" s="44" t="s">
+      <c r="B141" s="43" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="44" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10923,77 +10953,126 @@
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="193" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B193" s="44" t="s">
+    <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B193" s="43" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" s="43" t="s">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="43" t="s">
+      <c r="C194" s="59"/>
+      <c r="D194" s="59"/>
+      <c r="E194" s="59"/>
+      <c r="F194" s="59"/>
+      <c r="G194" s="59"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="43" t="s">
+      <c r="C195" s="59"/>
+      <c r="D195" s="59"/>
+      <c r="E195" s="59"/>
+      <c r="F195" s="59"/>
+      <c r="G195" s="59"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="43" t="s">
+      <c r="C196" s="59"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="59"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="58" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="43" t="s">
+      <c r="C197" s="59"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="58" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199" s="43" t="s">
+      <c r="C198" s="59"/>
+      <c r="D198" s="59"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="58" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="43" t="s">
+      <c r="C199" s="59"/>
+      <c r="D199" s="59"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="59"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="58" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="43" t="s">
+      <c r="C200" s="59"/>
+      <c r="D200" s="59"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="58" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="43" t="s">
+      <c r="C201" s="59"/>
+      <c r="D201" s="59"/>
+      <c r="E201" s="59"/>
+      <c r="F201" s="59"/>
+      <c r="G201" s="59"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="58" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C202" s="59"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
+    </row>
+    <row r="203" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B203" s="34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="42" t="s">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="41" t="s">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="40" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="40" t="s">
+    <row r="206" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C206" s="60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="D206" s="61"/>
+      <c r="E206" s="61"/>
+      <c r="F206" s="61"/>
+      <c r="G206" s="59"/>
+    </row>
+    <row r="208" spans="2:7" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B208" s="39" t="s">
         <v>148</v>
       </c>
@@ -11957,89 +12036,134 @@
       </c>
     </row>
     <row r="269" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="62" t="s">
         <v>88</v>
       </c>
+      <c r="C269" s="59"/>
+      <c r="D269" s="59"/>
+      <c r="E269" s="59"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="59"/>
     </row>
     <row r="270" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="62" t="s">
         <v>87</v>
       </c>
+      <c r="C270" s="59"/>
+      <c r="D270" s="59"/>
+      <c r="E270" s="59"/>
+      <c r="F270" s="59"/>
+      <c r="G270" s="59"/>
     </row>
     <row r="271" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="62" t="s">
         <v>86</v>
       </c>
+      <c r="C271" s="59"/>
+      <c r="D271" s="59"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="59"/>
     </row>
     <row r="272" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="30" t="s">
+      <c r="C272" s="59"/>
+      <c r="D272" s="59"/>
+      <c r="E272" s="59"/>
+      <c r="F272" s="59"/>
+      <c r="G272" s="59"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="30" t="s">
+      <c r="C273" s="59"/>
+      <c r="D273" s="59"/>
+      <c r="E273" s="59"/>
+      <c r="F273" s="59"/>
+      <c r="G273" s="59"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B274" s="62" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B275" s="30" t="s">
+      <c r="C274" s="59"/>
+      <c r="D274" s="59"/>
+      <c r="E274" s="59"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="59"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B275" s="62" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="30" t="s">
+      <c r="C275" s="59"/>
+      <c r="D275" s="59"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B276" s="62" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="30" t="s">
+      <c r="C276" s="59"/>
+      <c r="D276" s="59"/>
+      <c r="E276" s="59"/>
+      <c r="F276" s="59"/>
+      <c r="G276" s="59"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B277" s="62" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="C277" s="59"/>
+      <c r="D277" s="59"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="59"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B278" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B279" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A282" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B283" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B284" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B285" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B286" s="26"/>
     </row>
-    <row r="287" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B287" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B288" s="26"/>
     </row>
     <row r="289" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -12683,254 +12807,29 @@
       <c r="X351" s="11"/>
     </row>
     <row r="352" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B352" s="13"/>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
-      <c r="E352" s="12"/>
-      <c r="F352" s="12"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="12"/>
-      <c r="I352" s="12"/>
-      <c r="J352" s="12"/>
-      <c r="K352" s="12"/>
-      <c r="L352" s="12"/>
-      <c r="M352" s="12"/>
-      <c r="N352" s="12"/>
-      <c r="O352" s="12"/>
-      <c r="P352" s="12"/>
-      <c r="Q352" s="12"/>
-      <c r="R352" s="12"/>
-      <c r="S352" s="12"/>
-      <c r="T352" s="12"/>
-      <c r="U352" s="12"/>
-      <c r="V352" s="12"/>
-      <c r="W352" s="12"/>
-      <c r="X352" s="11"/>
-    </row>
-    <row r="353" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B353" s="13"/>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
-      <c r="E353" s="12"/>
-      <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="12"/>
-      <c r="I353" s="12"/>
-      <c r="J353" s="12"/>
-      <c r="K353" s="12"/>
-      <c r="L353" s="12"/>
-      <c r="M353" s="12"/>
-      <c r="N353" s="12"/>
-      <c r="O353" s="12"/>
-      <c r="P353" s="12"/>
-      <c r="Q353" s="12"/>
-      <c r="R353" s="12"/>
-      <c r="S353" s="12"/>
-      <c r="T353" s="12"/>
-      <c r="U353" s="12"/>
-      <c r="V353" s="12"/>
-      <c r="W353" s="12"/>
-      <c r="X353" s="11"/>
-    </row>
-    <row r="354" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B354" s="13"/>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
-      <c r="E354" s="12"/>
-      <c r="F354" s="12"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="12"/>
-      <c r="I354" s="12"/>
-      <c r="J354" s="12"/>
-      <c r="K354" s="12"/>
-      <c r="L354" s="12"/>
-      <c r="M354" s="12"/>
-      <c r="N354" s="12"/>
-      <c r="O354" s="12"/>
-      <c r="P354" s="12"/>
-      <c r="Q354" s="12"/>
-      <c r="R354" s="12"/>
-      <c r="S354" s="12"/>
-      <c r="T354" s="12"/>
-      <c r="U354" s="12"/>
-      <c r="V354" s="12"/>
-      <c r="W354" s="12"/>
-      <c r="X354" s="11"/>
-    </row>
-    <row r="355" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B355" s="13"/>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-      <c r="E355" s="12"/>
-      <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12"/>
-      <c r="I355" s="12"/>
-      <c r="J355" s="12"/>
-      <c r="K355" s="12"/>
-      <c r="L355" s="12"/>
-      <c r="M355" s="12"/>
-      <c r="N355" s="12"/>
-      <c r="O355" s="12"/>
-      <c r="P355" s="12"/>
-      <c r="Q355" s="12"/>
-      <c r="R355" s="12"/>
-      <c r="S355" s="12"/>
-      <c r="T355" s="12"/>
-      <c r="U355" s="12"/>
-      <c r="V355" s="12"/>
-      <c r="W355" s="12"/>
-      <c r="X355" s="11"/>
-    </row>
-    <row r="356" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B356" s="13"/>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-      <c r="E356" s="12"/>
-      <c r="F356" s="12"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12"/>
-      <c r="I356" s="12"/>
-      <c r="J356" s="12"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
-      <c r="M356" s="12"/>
-      <c r="N356" s="12"/>
-      <c r="O356" s="12"/>
-      <c r="P356" s="12"/>
-      <c r="Q356" s="12"/>
-      <c r="R356" s="12"/>
-      <c r="S356" s="12"/>
-      <c r="T356" s="12"/>
-      <c r="U356" s="12"/>
-      <c r="V356" s="12"/>
-      <c r="W356" s="12"/>
-      <c r="X356" s="11"/>
-    </row>
-    <row r="357" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B357" s="13"/>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
-      <c r="E357" s="12"/>
-      <c r="F357" s="12"/>
-      <c r="G357" s="12"/>
-      <c r="H357" s="12"/>
-      <c r="I357" s="12"/>
-      <c r="J357" s="12"/>
-      <c r="K357" s="12"/>
-      <c r="L357" s="12"/>
-      <c r="M357" s="12"/>
-      <c r="N357" s="12"/>
-      <c r="O357" s="12"/>
-      <c r="P357" s="12"/>
-      <c r="Q357" s="12"/>
-      <c r="R357" s="12"/>
-      <c r="S357" s="12"/>
-      <c r="T357" s="12"/>
-      <c r="U357" s="12"/>
-      <c r="V357" s="12"/>
-      <c r="W357" s="12"/>
-      <c r="X357" s="11"/>
-    </row>
-    <row r="358" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B358" s="13"/>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
-      <c r="E358" s="12"/>
-      <c r="F358" s="12"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="12"/>
-      <c r="I358" s="12"/>
-      <c r="J358" s="12"/>
-      <c r="K358" s="12"/>
-      <c r="L358" s="12"/>
-      <c r="M358" s="12"/>
-      <c r="N358" s="12"/>
-      <c r="O358" s="12"/>
-      <c r="P358" s="12"/>
-      <c r="Q358" s="12"/>
-      <c r="R358" s="12"/>
-      <c r="S358" s="12"/>
-      <c r="T358" s="12"/>
-      <c r="U358" s="12"/>
-      <c r="V358" s="12"/>
-      <c r="W358" s="12"/>
-      <c r="X358" s="11"/>
-    </row>
-    <row r="359" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B359" s="13"/>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
-      <c r="E359" s="12"/>
-      <c r="F359" s="12"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="12"/>
-      <c r="I359" s="12"/>
-      <c r="J359" s="12"/>
-      <c r="K359" s="12"/>
-      <c r="L359" s="12"/>
-      <c r="M359" s="12"/>
-      <c r="N359" s="12"/>
-      <c r="O359" s="12"/>
-      <c r="P359" s="12"/>
-      <c r="Q359" s="12"/>
-      <c r="R359" s="12"/>
-      <c r="S359" s="12"/>
-      <c r="T359" s="12"/>
-      <c r="U359" s="12"/>
-      <c r="V359" s="12"/>
-      <c r="W359" s="12"/>
-      <c r="X359" s="11"/>
-    </row>
-    <row r="360" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B360" s="13"/>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
-      <c r="F360" s="12"/>
-      <c r="G360" s="12"/>
-      <c r="H360" s="12"/>
-      <c r="I360" s="12"/>
-      <c r="J360" s="12"/>
-      <c r="K360" s="12"/>
-      <c r="L360" s="12"/>
-      <c r="M360" s="12"/>
-      <c r="N360" s="12"/>
-      <c r="O360" s="12"/>
-      <c r="P360" s="12"/>
-      <c r="Q360" s="12"/>
-      <c r="R360" s="12"/>
-      <c r="S360" s="12"/>
-      <c r="T360" s="12"/>
-      <c r="U360" s="12"/>
-      <c r="V360" s="12"/>
-      <c r="W360" s="12"/>
-      <c r="X360" s="11"/>
-    </row>
-    <row r="361" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B361" s="10"/>
-      <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="9"/>
-      <c r="G361" s="9"/>
-      <c r="H361" s="9"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="9"/>
-      <c r="K361" s="9"/>
-      <c r="L361" s="9"/>
-      <c r="M361" s="9"/>
-      <c r="N361" s="9"/>
-      <c r="O361" s="9"/>
-      <c r="P361" s="9"/>
-      <c r="Q361" s="9"/>
-      <c r="R361" s="9"/>
-      <c r="S361" s="9"/>
-      <c r="T361" s="9"/>
-      <c r="U361" s="9"/>
-      <c r="V361" s="9"/>
-      <c r="W361" s="9"/>
-      <c r="X361" s="8"/>
+      <c r="B352" s="10"/>
+      <c r="C352" s="9"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="9"/>
+      <c r="K352" s="9"/>
+      <c r="L352" s="9"/>
+      <c r="M352" s="9"/>
+      <c r="N352" s="9"/>
+      <c r="O352" s="9"/>
+      <c r="P352" s="9"/>
+      <c r="Q352" s="9"/>
+      <c r="R352" s="9"/>
+      <c r="S352" s="9"/>
+      <c r="T352" s="9"/>
+      <c r="U352" s="9"/>
+      <c r="V352" s="9"/>
+      <c r="W352" s="9"/>
+      <c r="X352" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
